--- a/Dataset/two_clusters/2020-11-16_main.xlsx
+++ b/Dataset/two_clusters/2020-11-16_main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kostya\Documents\Epidemic-Simulator-Public\Dataset\two_clusters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kostya\Documents\GitHub\Epidemic-Simulator\Dataset\two_clusters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6CC3E0-772E-4614-8887-274D93A8C357}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA06F7A-31E5-4AD6-A731-F7B0DEC16325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5885" yWindow="3769" windowWidth="21926" windowHeight="12772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5885" yWindow="3769" windowWidth="21926" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -971,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD90"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -992,10 +992,9 @@
     <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1035,9 +1034,8 @@
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1078,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1119,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1160,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1201,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1242,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1283,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1324,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1365,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1406,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1447,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1488,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1529,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1570,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1611,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5147,7 +5145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U104" sqref="U104"/>
     </sheetView>
   </sheetViews>
